--- a/biology/Botanique/Streptocarpus_saxorum/Streptocarpus_saxorum.xlsx
+++ b/biology/Botanique/Streptocarpus_saxorum/Streptocarpus_saxorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primevère du Cap
-La primevère du Cap (Streptocarpus saxorum Engl.) est une espèce de plantes de la famille des Gesneriaceae originaire d'Afrique du Sud[1]. Bien que nommée Primevère en français (Cape Primrose, False african violet en anglais) elle ne possède aucun lien avec le genre Primula.
+La primevère du Cap (Streptocarpus saxorum Engl.) est une espèce de plantes de la famille des Gesneriaceae originaire d'Afrique du Sud. Bien que nommée Primevère en français (Cape Primrose, False african violet en anglais) elle ne possède aucun lien avec le genre Primula.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Streptocarpus vient du grec 'streptos' qui signifie tordu et de 'karpos' qui désigne le fruit, faisant référence à la forme des graines et saxorum vient du latin 'saxum' qui signifie rocher.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante essentiellement herbacée, bien qu'à terme ses tiges se lignifient et font donc du bois. C'est une plante tropicale qui n'accepte pas les gelées et est donc peu rustique sous nos climats français. Elle se conserve tout de même très bien l'hiver dans une pièce de maison/serre hors gel où elle deviendra vivace.
 Ses feuilles sont charnues, duveteuses (pubescentes), obovales vert foncé bien que parfois vert clair comme les jeunes tiges. Elle forme une touffe étalée et retombante de 30 cm de haut souvent utilisée dans des suspensions et jardinières.
